--- a/biology/Médecine/François_Roulland/François_Roulland.xlsx
+++ b/biology/Médecine/François_Roulland/François_Roulland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Roulland</t>
+          <t>François_Roulland</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 François Roulland est un médecin et un homme politique français. Il est maire de Caen du 4 septembre 1870 à sa mort le 1er mai 1875.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Roulland</t>
+          <t>François_Roulland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">François Gabriel Victor Roulland est né le 5 août 1817 à Saint-Vaast-la-Hougue dans la Manche. Il fait des études de médecine à l'université de Caen. Après être devenu médecin, il devient professeur à l'école de médecine de Caen puis directeur de cette même école.
-Après la chute du Second Empire, il est nommé maire de Caen le 4 septembre 1870. Il reste à ce poste jusqu'à sa mort. Il meurt d'une crise d'apoplexie lors d'une représentation au théâtre le 1er mai 1875[1].
-Il est inhumé au cimetière des Quatre-Nations[2].
+Après la chute du Second Empire, il est nommé maire de Caen le 4 septembre 1870. Il reste à ce poste jusqu'à sa mort. Il meurt d'une crise d'apoplexie lors d'une représentation au théâtre le 1er mai 1875.
+Il est inhumé au cimetière des Quatre-Nations.
 </t>
         </is>
       </c>
